--- a/uploads/import/format/format_siswa.xlsx
+++ b/uploads/import/format/format_siswa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp73\htdocs\main\uploads\import\format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\main\uploads\import\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AB98C6-1BAD-41FF-A2A0-05014EAD880D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77674C64-90D2-45C4-8BDB-0328C096581B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,9 +197,6 @@
     <t xml:space="preserve">AGAMA </t>
   </si>
   <si>
-    <t>STATUS DALAM KELUARGA</t>
-  </si>
-  <si>
     <t>PENDIDIKAN
 IBU</t>
   </si>
@@ -278,6 +275,12 @@
       <t>(gunakan nomor
 1-12)</t>
     </r>
+  </si>
+  <si>
+    <t>STATUS DALAM KELUARGA
+1 = Anak Kandung
+2 = Anak Tiri
+ 3 = Anak Angkat</t>
   </si>
 </sst>
 </file>
@@ -381,17 +384,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118515D4-AE31-47E3-8FA2-673C74238DA7}">
   <dimension ref="A1:AQ1223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,181 +725,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-    </row>
-    <row r="2" spans="1:43" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+    </row>
+    <row r="2" spans="1:43" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>42</v>
+      <c r="R2" s="5" t="s">
+        <v>2</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>0</v>
+      <c r="S2" s="5" t="s">
+        <v>32</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>20</v>
+      <c r="T2" s="5" t="s">
+        <v>33</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>25</v>
+      <c r="U2" s="5" t="s">
+        <v>34</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>29</v>
+      <c r="V2" s="5" t="s">
+        <v>35</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>12</v>
+      <c r="W2" s="5" t="s">
+        <v>36</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>26</v>
+      <c r="X2" s="5" t="s">
+        <v>37</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>24</v>
+      <c r="Y2" s="5" t="s">
+        <v>1</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Z2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="7" t="s">
-        <v>2</v>
+      <c r="AI2" s="5" t="s">
+        <v>6</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>33</v>
+      <c r="AJ2" s="5" t="s">
+        <v>10</v>
       </c>
-      <c r="T2" s="7" t="s">
-        <v>34</v>
+      <c r="AK2" s="5" t="s">
+        <v>40</v>
       </c>
-      <c r="U2" s="7" t="s">
-        <v>35</v>
+      <c r="AL2" s="5" t="s">
+        <v>8</v>
       </c>
-      <c r="V2" s="7" t="s">
-        <v>36</v>
+      <c r="AM2" s="5" t="s">
+        <v>19</v>
       </c>
-      <c r="W2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AN2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AI2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO2" s="7" t="s">
+      <c r="AO2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" s="7" t="s">
+      <c r="AP2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AQ2" s="7" t="s">
-        <v>40</v>
+      <c r="AQ2" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -9693,6 +9696,12 @@
     <mergeCell ref="AL1:AQ1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status Keluarga" prompt="1 = Anak Kandung_x000a_2 = Anak Tiri_x000a_3 = Anak Angkat" sqref="Q3:Q4" xr:uid="{28F69209-6303-4C78-B3F8-F93BE8B59EBA}">
+      <formula1>1</formula1>
+      <formula2>5</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/uploads/import/format/format_siswa.xlsx
+++ b/uploads/import/format/format_siswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\main\uploads\import\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77674C64-90D2-45C4-8BDB-0328C096581B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83231D1-B15D-4032-BAF8-0BEAAC64F240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>SEKOLAH ASAL</t>
   </si>
@@ -159,9 +159,6 @@
       </rPr>
       <t>*</t>
     </r>
-  </si>
-  <si>
-    <t>SISWA</t>
   </si>
   <si>
     <t>ANAK KE</t>
@@ -325,18 +322,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -372,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -384,17 +375,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118515D4-AE31-47E3-8FA2-673C74238DA7}">
-  <dimension ref="A1:AQ1223"/>
+  <dimension ref="A1:AQ1222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,183 +709,146 @@
     <col min="44" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:43" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-    </row>
-    <row r="2" spans="1:43" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
+      <c r="Q1" s="6" t="s">
+        <v>42</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
+      <c r="R1" s="5" t="s">
+        <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
+      <c r="S1" s="5" t="s">
+        <v>31</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="T1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
+      <c r="AC1" s="5" t="s">
+        <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
+      <c r="AD1" s="5" t="s">
+        <v>11</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>42</v>
+      <c r="AE1" s="5" t="s">
+        <v>37</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>41</v>
+      <c r="AF1" s="5" t="s">
+        <v>5</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>0</v>
+      <c r="AG1" s="5" t="s">
+        <v>18</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>12</v>
+      <c r="AI1" s="5" t="s">
+        <v>6</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>26</v>
+      <c r="AJ1" s="5" t="s">
+        <v>10</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>24</v>
+      <c r="AK1" s="5" t="s">
+        <v>39</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>43</v>
+      <c r="AL1" s="5" t="s">
+        <v>8</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>2</v>
+      <c r="AM1" s="5" t="s">
+        <v>19</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>32</v>
+      <c r="AN1" s="6" t="s">
+        <v>30</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>33</v>
+      <c r="AO1" s="5" t="s">
+        <v>7</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>34</v>
+      <c r="AP1" s="5" t="s">
+        <v>9</v>
       </c>
-      <c r="V2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AF2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ2" s="5" t="s">
-        <v>39</v>
-      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -997,9 +945,9 @@
       <c r="B12" s="2"/>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
@@ -1065,7 +1013,6 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="2"/>
-      <c r="D19" s="4"/>
       <c r="E19" s="2"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -3810,7 +3757,6 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
-      <c r="B324" s="2"/>
       <c r="E324" s="2"/>
       <c r="F324" s="4"/>
       <c r="G324" s="4"/>
@@ -8107,7 +8053,6 @@
     </row>
     <row r="861" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A861" s="3"/>
-      <c r="E861" s="2"/>
       <c r="F861" s="4"/>
       <c r="G861" s="4"/>
       <c r="H861" s="4"/>
@@ -8962,10 +8907,6 @@
     </row>
     <row r="983" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A983" s="3"/>
-      <c r="F983" s="4"/>
-      <c r="G983" s="4"/>
-      <c r="H983" s="4"/>
-      <c r="I983" s="4"/>
     </row>
     <row r="984" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A984" s="3"/>
@@ -9684,20 +9625,10 @@
     <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1222" s="3"/>
     </row>
-    <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1223" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:Y1"/>
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AL1:AQ1"/>
-  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status Keluarga" prompt="1 = Anak Kandung_x000a_2 = Anak Tiri_x000a_3 = Anak Angkat" sqref="Q3:Q4" xr:uid="{28F69209-6303-4C78-B3F8-F93BE8B59EBA}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status Keluarga" prompt="1 = Anak Kandung_x000a_2 = Anak Tiri_x000a_3 = Anak Angkat" sqref="Q2:Q3" xr:uid="{28F69209-6303-4C78-B3F8-F93BE8B59EBA}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>

--- a/uploads/import/format/format_siswa.xlsx
+++ b/uploads/import/format/format_siswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\main\uploads\import\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83231D1-B15D-4032-BAF8-0BEAAC64F240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77674C64-90D2-45C4-8BDB-0328C096581B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>SEKOLAH ASAL</t>
   </si>
@@ -159,6 +159,9 @@
       </rPr>
       <t>*</t>
     </r>
+  </si>
+  <si>
+    <t>SISWA</t>
   </si>
   <si>
     <t>ANAK KE</t>
@@ -322,12 +325,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -363,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -375,11 +384,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118515D4-AE31-47E3-8FA2-673C74238DA7}">
-  <dimension ref="A1:AQ1222"/>
+  <dimension ref="A1:AQ1223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,146 +724,183 @@
     <col min="44" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+    </row>
+    <row r="2" spans="1:43" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>21</v>
+      <c r="P2" s="5" t="s">
+        <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>22</v>
+      <c r="Q2" s="6" t="s">
+        <v>43</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>41</v>
+      <c r="R2" s="5" t="s">
+        <v>2</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="S2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>0</v>
+      <c r="AL2" s="5" t="s">
+        <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>20</v>
+      <c r="AM2" s="5" t="s">
+        <v>19</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="5" t="s">
+      <c r="AN2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>32</v>
+      <c r="AO2" s="5" t="s">
+        <v>7</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>33</v>
+      <c r="AP2" s="5" t="s">
+        <v>9</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AQ2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -945,9 +997,9 @@
       <c r="B12" s="2"/>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
@@ -1013,6 +1065,7 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="2"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="2"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -3757,6 +3810,7 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
+      <c r="B324" s="2"/>
       <c r="E324" s="2"/>
       <c r="F324" s="4"/>
       <c r="G324" s="4"/>
@@ -8053,6 +8107,7 @@
     </row>
     <row r="861" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A861" s="3"/>
+      <c r="E861" s="2"/>
       <c r="F861" s="4"/>
       <c r="G861" s="4"/>
       <c r="H861" s="4"/>
@@ -8907,6 +8962,10 @@
     </row>
     <row r="983" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A983" s="3"/>
+      <c r="F983" s="4"/>
+      <c r="G983" s="4"/>
+      <c r="H983" s="4"/>
+      <c r="I983" s="4"/>
     </row>
     <row r="984" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A984" s="3"/>
@@ -9625,10 +9684,20 @@
     <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1222" s="3"/>
     </row>
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1223" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:Y1"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AL1:AQ1"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status Keluarga" prompt="1 = Anak Kandung_x000a_2 = Anak Tiri_x000a_3 = Anak Angkat" sqref="Q2:Q3" xr:uid="{28F69209-6303-4C78-B3F8-F93BE8B59EBA}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status Keluarga" prompt="1 = Anak Kandung_x000a_2 = Anak Tiri_x000a_3 = Anak Angkat" sqref="Q3:Q4" xr:uid="{28F69209-6303-4C78-B3F8-F93BE8B59EBA}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
